--- a/compliance/uk-official/three-tier-web-with-adds/Azure Blueprint Automation - Three-Tier Web Applications for UK-OFFICIAL - Principle Implementation Matrix.xlsx
+++ b/compliance/uk-official/three-tier-web-with-adds/Azure Blueprint Automation - Three-Tier Web Applications for UK-OFFICIAL - Principle Implementation Matrix.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-sukhka\Documents\UK G-Cloud\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://firstinfotech.sharepoint.com/sites/infosec/microsoft/Shared Documents/CaaS/Blueprint/UK G-Cloud Package/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="619185BA3E0748B66A41CF9AA5643674B62D809C" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{C600CC5C-DE57-4C11-AB79-ABE7D75FB9AA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="12804"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="12806" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
     <sheet name="Control Requirements" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Control Requirements'!$A$2:$D$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Control Requirements'!$A$2:$D$25</definedName>
   </definedNames>
   <calcPr calcId="171026"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
   <si>
     <r>
       <t xml:space="preserve">           </t>
@@ -59,9 +60,6 @@
     <t>This Azure Blueprint configures resources to communicate using only secure protocols. The WAF component of the Application Gateway is configured to accept communicators from external uses over HTTPS/TLS and communicate with the backend pool only over HTTPS/TLS. Remote Desktop services are configured to use secure connections. VPN is used to secure web traffic between AppGateway and Azure.</t>
   </si>
   <si>
-    <t>Principle 2: Asset Protection and Resilience</t>
-  </si>
-  <si>
     <t>Principle 2.1: Physical Location and Legal Jurisdiction</t>
   </si>
   <si>
@@ -79,9 +77,6 @@
   </si>
   <si>
     <t>To ensure data is not available to unauthorised parties with physical access to infrastructure, user data held within the service should be protected regardless of the storage media on which it’s held. Without appropriate measures in place, data may be inadvertently disclosed on discarded, lost or stolen media.</t>
-  </si>
-  <si>
-    <t>Virtual machines deployed by this Azure Blueprint implement disk encryption to protect the confidentiality and integrity of information at rest. Azure disk encryption for Windows is implemented using the BitLocker feature of Windows. The customer may elect to implement additional application-level controls to protect the integrity of stored information. Confidentiality and integrity of all blob storage deployed by this Azure Blueprint solution are protected through use of Azure Storage Service Encryption (SSE). SSE safeguards data at rest within Azure storage accounts using 256-bit AES encryption.</t>
   </si>
   <si>
     <t>Principle 2.4: Data Sanitisation</t>
@@ -117,17 +112,6 @@
 Having an effective governance framework will ensure that procedure, personnel, physical and technical controls continue to work through the lifetime of a service. It should also respond to changes in the service, technological developments and the appearance of new threats. </t>
   </si>
   <si>
-    <t>Principle 5: Operational Security</t>
-  </si>
-  <si>
-    <t>The service needs to be operated and managed securely in order to impede, detect or prevent attacks. Good operational security should not require complex, bureaucratic, time consuming or expensive processes.  
-There are four elements to consider:
-• Configuration and Change Management – you should ensure that changes to the system have been properly tested and authorised. Changes should not unexpectedly alter security properties
-• Vulnerability Management – you should identify and mitigate security issues in constituent components
-• Protective Monitoring – you should put measures in place to detect attacks and unauthorised activity on the service
-• Incident Management – ensure you can respond to incidents and recover a secure, available service</t>
-  </si>
-  <si>
     <t>Principle 5.1: Configuration and Change Management</t>
   </si>
   <si>
@@ -136,10 +120,6 @@
 Where change is not effectively managed, security vulnerabilities may be unwittingly introduced to a service. And even where there is awareness of the vulnerability, it may not be fully mitigated.</t>
   </si>
   <si>
-    <t>The Azure Resource Manager templates and accompanying resources that comprise this Azure Blueprint represent a "configuration as code" baseline for the deployed architecture. The solution is provided though GitHub, which can be used for configuration control. The solution includes a Desired State Configuration (DSC) baseline for each deployed virtual machine. These declarative PowerShell scripts define and configure the resources to which they are applied. The baseline DSC included for resources deployed by this solution can be extended by the customer to meet mission needs.
-Azure Active Directory account privileges are implemented using role-based access control by assigning users to roles providing strict control over which users can view and control deployed resources. Active Directory account privileges are implemented using role-based access control by assigning users to security groups. These security groups control the actions that users can take with respect to operating system configuration. These role-based schemes can be extended by the customer to meet mission needs.</t>
-  </si>
-  <si>
     <t>Principle 5.2: Vulnerability Management</t>
   </si>
   <si>
@@ -172,11 +152,6 @@
     <t xml:space="preserve">Services should be designed and developed to identify and mitigate threats to their security. Those which aren’t may be vulnerable to security issues which could compromise your data, cause loss of service or enable other malicious activity. </t>
   </si>
   <si>
-    <t>The virtual machines deployed by this Azure Blueprint run Windows operating systems. Windows provides real-time file integrity validation, protection, and recovery of core system files that are installed as part of Windows or authorized Windows system updates through the Windows Resource Protection (WRP) capability, which enables real-time integrity checking. 
-Windows has protections in place for preventing code execution in restricted memory locations: No Execute (NX), Address Space Layout Randomization (ASLR), and Data Execution Prevention (DEP).
-This Azure Blueprint deploys host-based antimalware protections for all deployed Windows virtual machines implemented using the Microsoft Antimalware virtual machine extension. This extension is configured to automatically update both the antimalware engine and protection signatures as release become available.</t>
-  </si>
-  <si>
     <t>Principle 8: Supply Chain Security</t>
   </si>
   <si>
@@ -184,21 +159,7 @@
 Cloud services often rely upon third party products and services. Consequently, if this principle is not implemented, supply chain compromise can undermine the security of the service and affect the implementation of other security principles.</t>
   </si>
   <si>
-    <t>Principle 9: Secure User Management</t>
-  </si>
-  <si>
-    <t>Your provider should make the tools available for you to securely manage your use of their service. Management interfaces and procedures are a vital part of the security barrier, preventing unauthorised access and alteration of your resources, applications and data. 
-The aspects to consider are:
-• Authentication of users to management interfaces and support channels
-• Separation and access control within management interfaces</t>
-  </si>
-  <si>
     <t>Principle 9.1: Authentication of Users to Management Interfaces and within Support Channels</t>
-  </si>
-  <si>
-    <t>When administrators access the Microsoft Azure Portal to manage Azure resources for their organization, the data transmitted between the portal and the administrator’s device is sent over an encrypted Transport Layer Security (TLS) channel using 2048-bit RSA/SHA256 encryption keys, as recommended by CESG/NCSC. 
-This Azure Blueprint employs Windows authentication, remote desktop, and BitLocker. These components can be configured to rely on FIPS 140 validated cryptographic modules.
-This Azure Blueprint enforces logical access authorizations using role-based access control enforced by Azure Active Directory by assigning users to roles, Active Directory by assigning users to security groups, and Windows OS-level controls. Azure Active Directory roles assigned to users or groups control logical access to resources within Azure at the resource, group, or subscription level. Active Directory security groups control logical access to OS-level resources and functions.</t>
   </si>
   <si>
     <t>Principle 9.2: Separation and Access Control within Management Interfaces</t>
@@ -210,9 +171,6 @@
 Exposing management interfaces to less accessible networks (e.g. community rather than public networks) makes it more difficult for attackers to reach and attack them, as they would first need to gain access to one of these networks. Guidance on assessing the risks of exposing interfaces to different types of networks is provided under Principle 11.</t>
   </si>
   <si>
-    <t>This Azure Blueprint deploys an Application Gateway, load balancer, and configures network security group rules to control commutations at external boundaries and between internal subnets. User functionality is separated from system management functionality through enforcement of logical access controls and system architecture. User functionality is limited to customer-deployed web application interfaces. Interfaces for system management functionality are separate from user interfaces. All management connectivity is through a secure bastion host (jumpbox) located in a management subnet with network security group rules to limit access to production resources as appropriate.</t>
-  </si>
-  <si>
     <t>Principle 10: Identity and Authentication</t>
   </si>
   <si>
@@ -261,16 +219,6 @@
   </si>
   <si>
     <t xml:space="preserve">The Azure Resource Manager templates and accompanying resources that comprise this Azure Blueprint follow a defence-in-depth approach to security. In order to be compliant with this principle, further configuration is required by the customer for use in production (e.g., database management software, web application deployment). </t>
-  </si>
-  <si>
-    <t>User data, and the assets storing or processing it, should be protected against physical tampering, loss, damage or seizure. 
-The aspects to consider are:
-(1) Physical Location and Legal Jurisdiction
-(2) Datacentre Security
-(3) Data at Rest Protection
-(4) Data Sanitisation
-(5) Equipment Disposal
-(6) Physical Resilience and Availability</t>
   </si>
   <si>
     <t>Principle 2.2: datacentre Security</t>
@@ -378,11 +326,33 @@
 - This document is developed as a reference and should not be used to define all means by which a customer can meet specific compliance requirements and regulations. Customers should seek legal support from their organization on approved customer implementations.</t>
     </r>
   </si>
+  <si>
+    <t>The Azure Resource Manager templates and accompanying resources that comprise this Azure Blueprint represent a "configuration as code" baseline for the deployed architecture. The solution is provided though GitHub, which can be used for configuration control. 
+Azure Active Directory account privileges are implemented using role-based access control by assigning users to roles providing strict control over which users can view and control deployed resources. Active Directory account privileges are implemented using role-based access control by assigning users to security groups. These security groups control the actions that users can take with respect to operating system configuration. These role-based schemes can be extended by the customer to meet mission needs.
+In order to be compliant with this principle, further configuration is required by the customer for use in production. As such, these configurations will need to be a part of the customer's change management process.</t>
+  </si>
+  <si>
+    <t>The virtual machines deployed by this Azure Blueprint run Windows operating systems. Windows provides real-time file integrity validation, protection, and recovery of core system files that are installed as part of Windows or authorized Windows system updates through the Windows Resource Protection (WRP) capability, which enables real-time integrity checking. 
+Windows has protections in place for preventing code execution in restricted memory locations: No Execute (NX), Address Space Layout Randomization (ASLR), and Data Execution Prevention (DEP).
+This Azure Blueprint deploys host-based antimalware protections for all deployed Windows virtual machines implemented using the Microsoft Windows Defender. Windows Defender is configured to automatically update both the antimalware engine and protection signatures as release become available.
+In order to be compliant with this principle, further configuration is required by the customer for use in production. As such, these configurations will need to be a part of the customer's secure development process.</t>
+  </si>
+  <si>
+    <t>When administrators access the Microsoft Azure Portal to manage Azure resources for their organization, the data transmitted between the portal and the administrator’s device is sent over an encrypted Transport Layer Security (TLS) channel using 2048-bit RSA/SHA256 encryption keys, as recommended by CESG/NCSC. 
+This Azure Blueprint employs Windows authentication, remote desktop. These components can be configured to rely on FIPS 140 validated cryptographic modules.
+This Azure Blueprint enforces logical access authorizations using role-based access control enforced by Azure Active Directory by assigning users to roles, Active Directory by assigning users to security groups, and Windows OS-level controls. Azure Active Directory roles assigned to users or groups control logical access to resources within Azure at the resource, group, or subscription level. Active Directory security groups control logical access to OS-level resources and functions.</t>
+  </si>
+  <si>
+    <t>This Azure Blueprint deploys an Application Gateway, load balancer, and configures network security group rules to control commutations at external boundaries and between internal subnets. User functionality is separated from system management functionality through enforcement of logical access controls and system architecture. Interfaces for system management functionality are separate from user interfaces. All management connectivity is through a secure bastion host (jumpbox) located in a management subnet with network security group rules to limit access to production resources as appropriate.</t>
+  </si>
+  <si>
+    <t>Confidentiality and integrity of all blob storage deployed by this Azure Blueprint solution is protected through use of Azure Storage Service Encryption (SSE). SSE safeguards data at rest within Azure storage accounts using 256-bit AES encryption.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -555,8 +525,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -970,7 +940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -978,20 +948,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="162.21875" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="10.77734375" style="3"/>
+    <col min="1" max="1" width="162.23046875" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="10.765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="223.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="223.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1002,25 +972,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="31.77734375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="83.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="85.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.21875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="31.765625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="83.23046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.4609375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="85.23046875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.23046875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -1028,21 +998,21 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:4" s="11" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="11" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="281.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="281.60000000000002" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1050,81 +1020,83 @@
         <v>3</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="169.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="174.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="225.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="150.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="262.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="180.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="14"/>
-    </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" ht="174.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" ht="262.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="4" customFormat="1" ht="180.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" s="4" customFormat="1" ht="136.94999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
@@ -1132,13 +1104,11 @@
         <v>15</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" ht="136.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:4" s="4" customFormat="1" ht="204" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
@@ -1146,11 +1116,13 @@
         <v>17</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11" spans="1:4" s="4" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="4" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
@@ -1158,13 +1130,13 @@
         <v>19</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="4" customFormat="1" ht="242.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>20</v>
       </c>
@@ -1172,13 +1144,13 @@
         <v>21</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="4" customFormat="1" ht="238.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="4" customFormat="1" ht="86.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
@@ -1186,11 +1158,11 @@
         <v>23</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" ht="242.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" s="4" customFormat="1" ht="92.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
@@ -1198,197 +1170,159 @@
         <v>25</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:4" s="4" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" ht="86.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4" s="4" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16" spans="1:4" s="4" customFormat="1" ht="92.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" s="4" customFormat="1" ht="217.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="14"/>
-    </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="1:5" s="4" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" s="4" customFormat="1" ht="228.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" ht="217.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="B19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="4" customFormat="1" ht="226.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="14" t="s">
+      <c r="C20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="4" customFormat="1" ht="126.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E19"/>
-    </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C21" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="14"/>
-    </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+    </row>
+    <row r="22" spans="1:5" s="4" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="A22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="14"/>
-    </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" ht="228.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="C22" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="14" t="s">
+    </row>
+    <row r="23" spans="1:5" s="4" customFormat="1" ht="119.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" ht="226.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:5" s="4" customFormat="1" ht="236.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="14" t="s">
+      <c r="B24" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" s="4" customFormat="1" ht="126.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="C24" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="5" t="s">
+    </row>
+    <row r="25" spans="1:5" s="4" customFormat="1" ht="218.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="14" t="s">
+      <c r="B25" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" s="4" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="C25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="4" customFormat="1" ht="119.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="14"/>
-    </row>
-    <row r="27" spans="1:5" s="4" customFormat="1" ht="236.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="4" customFormat="1" ht="218.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>60</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D28"/>
+  <autoFilter ref="A2:D25" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -1640,15 +1574,15 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBD026C-7F7B-486C-9645-A4A57B24C3FC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="096192dc-c32c-46c9-b9e6-87ce30624e77"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="e099eaf9-2a58-49c7-8c12-c03817521853"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
